--- a/storage_demand_GW.xlsx
+++ b/storage_demand_GW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Low</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>CP4All</t>
+  </si>
+  <si>
+    <t>ENTSOE_2022</t>
   </si>
 </sst>
 </file>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1950</v>
       </c>
@@ -419,8 +425,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1951</v>
       </c>
@@ -436,8 +445,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1952</v>
       </c>
@@ -453,8 +465,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1953</v>
       </c>
@@ -470,8 +485,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1954</v>
       </c>
@@ -487,8 +505,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1955</v>
       </c>
@@ -504,8 +525,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1956</v>
       </c>
@@ -521,8 +545,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1957</v>
       </c>
@@ -538,8 +565,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>1958</v>
       </c>
@@ -555,8 +585,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>1959</v>
       </c>
@@ -572,8 +605,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>1960</v>
       </c>
@@ -589,8 +625,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>1961</v>
       </c>
@@ -606,8 +645,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1962</v>
       </c>
@@ -623,8 +665,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1963</v>
       </c>
@@ -640,8 +685,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>1964</v>
       </c>
@@ -657,8 +705,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>1965</v>
       </c>
@@ -674,8 +725,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>1966</v>
       </c>
@@ -691,8 +745,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>1967</v>
       </c>
@@ -708,8 +765,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>1968</v>
       </c>
@@ -725,8 +785,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>1969</v>
       </c>
@@ -742,8 +805,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>1970</v>
       </c>
@@ -759,8 +825,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>1971</v>
       </c>
@@ -776,8 +845,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>1972</v>
       </c>
@@ -793,8 +865,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>1973</v>
       </c>
@@ -810,8 +885,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>1974</v>
       </c>
@@ -827,8 +905,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>1975</v>
       </c>
@@ -844,8 +925,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>1976</v>
       </c>
@@ -861,8 +945,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>1977</v>
       </c>
@@ -878,8 +965,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>1978</v>
       </c>
@@ -895,8 +985,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>1979</v>
       </c>
@@ -912,8 +1005,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>1980</v>
       </c>
@@ -929,8 +1025,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>1981</v>
       </c>
@@ -946,8 +1045,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>1982</v>
       </c>
@@ -963,8 +1065,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>1983</v>
       </c>
@@ -980,8 +1085,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>1984</v>
       </c>
@@ -997,8 +1105,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>1985</v>
       </c>
@@ -1014,8 +1125,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>1986</v>
       </c>
@@ -1031,8 +1145,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>1987</v>
       </c>
@@ -1048,8 +1165,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>1988</v>
       </c>
@@ -1065,8 +1185,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>1989</v>
       </c>
@@ -1082,8 +1205,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>1990</v>
       </c>
@@ -1099,8 +1225,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>1991</v>
       </c>
@@ -1116,8 +1245,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>1992</v>
       </c>
@@ -1133,8 +1265,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>1993</v>
       </c>
@@ -1150,8 +1285,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>1994</v>
       </c>
@@ -1167,8 +1305,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>1995</v>
       </c>
@@ -1184,8 +1325,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>1996</v>
       </c>
@@ -1201,8 +1345,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>1997</v>
       </c>
@@ -1218,8 +1365,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>1998</v>
       </c>
@@ -1235,8 +1385,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>1999</v>
       </c>
@@ -1252,8 +1405,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>2000</v>
       </c>
@@ -1269,8 +1425,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>2001</v>
       </c>
@@ -1286,8 +1445,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>2002</v>
       </c>
@@ -1303,8 +1465,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>2003</v>
       </c>
@@ -1320,8 +1485,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>2004</v>
       </c>
@@ -1337,8 +1505,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>2005</v>
       </c>
@@ -1354,8 +1525,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>2006</v>
       </c>
@@ -1371,8 +1545,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>2007</v>
       </c>
@@ -1388,8 +1565,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>2008</v>
       </c>
@@ -1405,8 +1585,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>2009</v>
       </c>
@@ -1422,8 +1605,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>2010</v>
       </c>
@@ -1439,8 +1625,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>2011</v>
       </c>
@@ -1456,8 +1645,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>2012</v>
       </c>
@@ -1473,8 +1665,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>2013</v>
       </c>
@@ -1490,8 +1685,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>2014</v>
       </c>
@@ -1507,8 +1705,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>2015</v>
       </c>
@@ -1524,8 +1725,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -1541,8 +1745,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>2017</v>
       </c>
@@ -1558,8 +1765,11 @@
       <c r="E69">
         <v>0.2002564859148577</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>0.2781340082150802</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>2018</v>
       </c>
@@ -1575,8 +1785,11 @@
       <c r="E70">
         <v>0.2985841944313958</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0.4147002700436054</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>2019</v>
       </c>
@@ -1592,8 +1805,11 @@
       <c r="E71">
         <v>0.4450721681942594</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>0.6181557891586936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>2020</v>
       </c>
@@ -1609,8 +1825,11 @@
       <c r="E72">
         <v>0.6631631818984774</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0.9210599748589965</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>2021</v>
       </c>
@@ -1626,8 +1845,11 @@
       <c r="E73">
         <v>0.9875338019010728</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>1.371574724862601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>2022</v>
       </c>
@@ -1643,8 +1865,11 @@
       <c r="E74">
         <v>1.46926280756878</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>2.040642788289972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>2023</v>
       </c>
@@ -1660,8 +1885,11 @@
       <c r="E75">
         <v>2.183118297169362</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>3.032108746068559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>2024</v>
       </c>
@@ -1677,8 +1905,11 @@
       <c r="E76">
         <v>3.23751779317648</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>4.496552490522889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>2025</v>
       </c>
@@ -1694,8 +1925,11 @@
       <c r="E77">
         <v>4.787458843835854</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>6.649248394216464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>2026</v>
       </c>
@@ -1711,8 +1945,11 @@
       <c r="E78">
         <v>7.049830103417584</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>9.791430699191089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>2027</v>
       </c>
@@ -1728,8 +1965,11 @@
       <c r="E79">
         <v>10.31835166179637</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>14.33104397471718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>2028</v>
       </c>
@@ -1745,8 +1985,11 @@
       <c r="E80">
         <v>14.97108536890602</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>20.79317412348059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>2029</v>
       </c>
@@ -1762,8 +2005,11 @@
       <c r="E81">
         <v>21.45652596398116</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>29.80073050552939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>2030</v>
       </c>
@@ -1779,8 +2025,11 @@
       <c r="E82">
         <v>30.23669067589359</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>41.99540371651888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>2031</v>
       </c>
@@ -1796,8 +2045,11 @@
       <c r="E83">
         <v>41.66553897017682</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>57.86880412524558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>2032</v>
       </c>
@@ -1813,8 +2065,11 @@
       <c r="E84">
         <v>55.80459339702976</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>77.50637971809688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>2033</v>
       </c>
@@ -1830,8 +2085,11 @@
       <c r="E85">
         <v>72.23622117975864</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>100.328084971887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>2034</v>
       </c>
@@ -1847,8 +2105,11 @@
       <c r="E86">
         <v>90</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>2035</v>
       </c>
@@ -1864,8 +2125,11 @@
       <c r="E87">
         <v>107.7637788202414</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>149.671915028113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>2036</v>
       </c>
@@ -1881,8 +2145,11 @@
       <c r="E88">
         <v>124.1954066029702</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>172.4936202819031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>2037</v>
       </c>
@@ -1898,8 +2165,11 @@
       <c r="E89">
         <v>138.3344610298232</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>192.1311958747544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>2038</v>
       </c>
@@ -1915,8 +2185,11 @@
       <c r="E90">
         <v>149.7633093241064</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>208.0045962834811</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>2039</v>
       </c>
@@ -1932,8 +2205,11 @@
       <c r="E91">
         <v>158.5434740360188</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>220.1992694944706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>2040</v>
       </c>
@@ -1949,8 +2225,11 @@
       <c r="E92">
         <v>165.028914631094</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>229.2068258765194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>2041</v>
       </c>
@@ -1966,8 +2245,11 @@
       <c r="E93">
         <v>169.6816483382036</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>235.6689560252828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>2042</v>
       </c>
@@ -1983,8 +2265,11 @@
       <c r="E94">
         <v>172.9501698965824</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>240.2085693008089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>2043</v>
       </c>
@@ -2000,8 +2285,11 @@
       <c r="E95">
         <v>175.2125411561641</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>243.3507516057835</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>2044</v>
       </c>
@@ -2017,8 +2305,11 @@
       <c r="E96">
         <v>176.7624822068235</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>245.5034475094771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>2045</v>
       </c>
@@ -2034,8 +2325,11 @@
       <c r="E97">
         <v>177.8168817028306</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>246.9678912539314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>2046</v>
       </c>
@@ -2051,8 +2345,11 @@
       <c r="E98">
         <v>178.5307371924312</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>247.95935721171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>2047</v>
       </c>
@@ -2068,8 +2365,11 @@
       <c r="E99">
         <v>179.0124661980989</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>248.6284252751374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>2048</v>
       </c>
@@ -2085,8 +2385,11 @@
       <c r="E100">
         <v>179.3368368181015</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>249.078940025141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>2049</v>
       </c>
@@ -2102,8 +2405,11 @@
       <c r="E101">
         <v>179.5549278318058</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>249.3818442108413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>2050</v>
       </c>
@@ -2118,6 +2424,9 @@
       </c>
       <c r="E102">
         <v>179.7014158055686</v>
+      </c>
+      <c r="F102">
+        <v>249.5852997299564</v>
       </c>
     </row>
   </sheetData>
